--- a/document/testcase/TestCaseRegister.xlsx
+++ b/document/testcase/TestCaseRegister.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gin Ichimaru\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam3\HK2\CNPM\DoAn\GymWeb\document\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B84D42B-A046-4653-AD6F-561230D5B69B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7CD55CDB-D3C4-4A4D-8A1F-71F00A66C55C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -219,9 +218,6 @@
     <t>Pass / Fail / Not executed / Suspended</t>
   </si>
   <si>
-    <t>Navigate to</t>
-  </si>
-  <si>
     <t>Site should open</t>
   </si>
   <si>
@@ -244,40 +240,43 @@
   </si>
   <si>
     <t>7-Maya-2021</t>
+  </si>
+  <si>
+    <t>Navigate to http://localhost:3000/signup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -285,13 +284,21 @@
       <b/>
       <u/>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -473,11 +480,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -528,6 +536,90 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -537,92 +629,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
@@ -935,60 +947,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAAF561-4ED4-476E-8211-81042147200B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:K6"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
       <c r="K1" s="22"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="23"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="22"/>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1001,11 +1013,11 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1016,7 +1028,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1029,32 +1041,32 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="42" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="45" t="s">
+      <c r="I6" s="27"/>
+      <c r="J6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="45"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1067,109 +1079,109 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="22"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="22"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <f xml:space="preserve"> F9 +1</f>
         <v>2</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="22"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <f t="shared" ref="F11:F47" si="0" xml:space="preserve"> F10 +1</f>
         <v>3</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="22"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1179,15 +1191,15 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1197,15 +1209,15 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1215,15 +1227,15 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="22"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1233,15 +1245,15 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1251,15 +1263,15 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="22"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1269,15 +1281,15 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="22"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1287,15 +1299,15 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
       <c r="K19" s="22"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1305,15 +1317,15 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1323,15 +1335,15 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1341,15 +1353,15 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1359,15 +1371,15 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1377,15 +1389,15 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="22"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1395,15 +1407,15 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="22"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1413,15 +1425,15 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="22"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1431,15 +1443,15 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="22"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1449,15 +1461,15 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1467,15 +1479,15 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="22"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1485,15 +1497,15 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1503,15 +1515,15 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1521,15 +1533,15 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="22"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1539,15 +1551,15 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="22"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -1557,15 +1569,15 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="G34" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -1575,15 +1587,15 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="G35" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
       <c r="K35" s="22"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -1593,15 +1605,15 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G36" s="21" t="s">
+      <c r="G36" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
       <c r="K36" s="22"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -1611,15 +1623,15 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
       <c r="K37" s="22"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1629,15 +1641,15 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
       <c r="K38" s="22"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1647,15 +1659,15 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
       <c r="K39" s="22"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1665,15 +1677,15 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
       <c r="K40" s="22"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1683,15 +1695,15 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="G41" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
       <c r="K41" s="22"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1701,15 +1713,15 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
       <c r="K42" s="22"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1719,15 +1731,15 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="G43" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
       <c r="K43" s="22"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1737,15 +1749,15 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="G44" s="21" t="s">
+      <c r="G44" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
       <c r="K44" s="22"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1755,15 +1767,15 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G45" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
       <c r="K45" s="22"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1773,15 +1785,15 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="G46" s="21" t="s">
+      <c r="G46" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
       <c r="K46" s="22"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1791,15 +1803,15 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G47" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
       <c r="K47" s="22"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1812,7 +1824,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1825,7 +1837,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1838,7 +1850,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -1851,7 +1863,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>57</v>
       </c>
@@ -1868,7 +1880,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -1876,112 +1888,112 @@
       <c r="E53" s="10"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
+    <row r="54" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="30" t="s">
+      <c r="C54" s="37"/>
+      <c r="D54" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="E54" s="31"/>
+      <c r="E54" s="41"/>
       <c r="F54" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="14"/>
-      <c r="I54" s="26" t="s">
+      <c r="I54" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="J54" s="34"/>
-      <c r="K54" s="27"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="33"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="37"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="35"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="43"/>
       <c r="F55" s="15"/>
       <c r="G55" s="16"/>
       <c r="H55" s="17"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="29"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I55" s="38"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="39"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>1</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="21" t="s">
-        <v>65</v>
-      </c>
       <c r="E56" s="22"/>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G56" s="47"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J56" s="19"/>
-      <c r="K56" s="20"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J56" s="47"/>
+      <c r="K56" s="48"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>2</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="21" t="s">
-        <v>67</v>
-      </c>
       <c r="E57" s="22"/>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="47"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J57" s="19"/>
-      <c r="K57" s="20"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J57" s="47"/>
+      <c r="K57" s="48"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>3</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="21" t="s">
+      <c r="E58" s="22"/>
+      <c r="F58" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="18" t="s">
+      <c r="G58" s="47"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G58" s="19"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J58" s="19"/>
-      <c r="K58" s="20"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J58" s="47"/>
+      <c r="K58" s="48"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -1994,7 +2006,7 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -2007,7 +2019,7 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -2017,6 +2029,67 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="D54:E55"/>
+    <mergeCell ref="I54:K55"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2031,68 +2104,10 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="D54:E55"/>
-    <mergeCell ref="I54:K55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="I57:K57"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B56" r:id="rId1" display="http://localhost:3000/signup"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>